--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565870.2796752304</v>
+        <v>497537.1536522539</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554242</v>
+        <v>335414.3901624711</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10905804.67830211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8424682.894232525</v>
+        <v>8445301.61218171</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.47627913313512</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>201.7660823049049</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>178.7609793817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.3396163656985</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>6.817411324556116</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>80.34027609785819</v>
       </c>
     </row>
     <row r="7">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>61.40579841663124</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>212.285385643442</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>133.2545777280143</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>185.7305222296127</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>159.8350691069755</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.44273046543702</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>311.4936872159399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>157.0044783406141</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.058423000548196</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>56.57756245340234</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.7835007017901</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>114.8791903675466</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>51.83903723181706</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.36189168600487</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>275.4805812731078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>142.7973342657374</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.342310594081</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>73.46100831328349</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>85.8987684002238</v>
       </c>
     </row>
     <row r="24">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>252.7077160573364</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>58.58442069852295</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.2982592812052</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>56.31449141872282</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>114.4531060366759</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>49.75696784121567</v>
       </c>
       <c r="H31" t="n">
-        <v>49.38957925603672</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>312.640717904485</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>177.753573820959</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>71.08259300547789</v>
+        <v>82.5995718321566</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.1498336210767</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.0354783084786</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>154.9966036595299</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>9.764863467406604</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>51.51528683871006</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>89.72416110722781</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>110.92720347361</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>68.4314178382491</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>89.00389277357181</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>25.08467608327366</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.23626279480629</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615.2751726504672</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C3" t="n">
-        <v>440.8221433693402</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D3" t="n">
-        <v>291.8877337080889</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4445,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>525.1009237385856</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="Y3" t="n">
-        <v>783.4905096705352</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="4">
@@ -4506,19 +4506,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T5" t="n">
-        <v>518.2486856454962</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="V5" t="n">
-        <v>274.7999090013961</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="W5" t="n">
-        <v>274.7999090013961</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>274.7999090013961</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359.8579014620034</v>
+        <v>628.2098588297198</v>
       </c>
       <c r="C6" t="n">
-        <v>185.4048721808764</v>
+        <v>453.7568295485928</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="V6" t="n">
-        <v>735.8335372470253</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="W6" t="n">
-        <v>735.8335372470253</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="X6" t="n">
-        <v>735.8335372470253</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="Y6" t="n">
-        <v>528.0732384820715</v>
+        <v>796.4251958497878</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098033</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>843.9662583320093</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>619.0259954159492</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>619.0259954159492</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>619.0259954159492</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>619.0259954159492</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>353.1249510203257</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>453.4809361619635</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C9" t="n">
-        <v>453.4809361619635</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D9" t="n">
-        <v>304.5465265007123</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E9" t="n">
-        <v>304.5465265007123</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>154.3302328992137</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>394.9337607940764</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>600.5536970360777</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>600.5536970360777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>860.9667611285699</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U9" t="n">
-        <v>829.4565719469854</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="V9" t="n">
-        <v>829.4565719469854</v>
+        <v>865.3615476959487</v>
       </c>
       <c r="W9" t="n">
-        <v>829.4565719469854</v>
+        <v>611.1241909677472</v>
       </c>
       <c r="X9" t="n">
-        <v>829.4565719469854</v>
+        <v>403.2726907622143</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.6962731820315</v>
+        <v>195.5123919972604</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1995.909162857192</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
         <v>471.9067899221776</v>
@@ -5044,10 +5044,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2543.693401078577</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2543.693401078577</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.931615716669</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.868728373098</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1606.100073102984</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1606.100073102984</v>
       </c>
       <c r="Y11" t="n">
-        <v>2382.509002921313</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="12">
@@ -5102,13 +5102,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5120,31 +5120,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073963</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5229,22 +5229,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>207.4089578252748</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>207.4089578252748</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>207.4089578252748</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E14" t="n">
-        <v>207.4089578252748</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2690.019370815648</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2513.841883129819</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2295.207216101881</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2041.445430739973</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1710.382543396402</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1357.613888126288</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>984.1481298652084</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>594.0087978893966</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5381,19 +5381,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0920348035991</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0920348035991</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0920348035991</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0920348035991</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>598.0446400632119</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1865.381229508782</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C17" t="n">
-        <v>1865.381229508782</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="X17" t="n">
-        <v>2642.120401548716</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y17" t="n">
-        <v>2251.981069572904</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5597,40 +5597,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641991</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>550.5654064942401</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>550.5654064942401</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>550.5654064942401</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="C20" t="n">
-        <v>1546.944160717209</v>
+        <v>1353.22256939652</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>994.9568707897693</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>609.168618191525</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>198.1827134019174</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5785,19 +5785,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5834,46 +5834,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>546.109828622464</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C23" t="n">
-        <v>546.109828622464</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D23" t="n">
-        <v>546.109828622464</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
         <v>471.9067899221776</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982757</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y23" t="n">
-        <v>546.109828622464</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2013.317548404538</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C26" t="n">
-        <v>2013.317548404538</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D26" t="n">
-        <v>1655.051849797787</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E26" t="n">
-        <v>1269.263597199543</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>858.2776924099353</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>440.3138843081222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>113.119164344125</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y26" t="n">
-        <v>2013.317548404538</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>380.6911546495019</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U28" t="n">
-        <v>380.6911546495019</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V28" t="n">
-        <v>380.6911546495019</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.874376112625</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.911859172214</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.911859172214</v>
+        <v>1325.564271975406</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>939.7760193771617</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>528.7901145875542</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>110.826306485741</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>110.826306485741</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224073</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1546.874376112625</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X29" t="n">
-        <v>1546.874376112625</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y29" t="n">
-        <v>1546.874376112625</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6563,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>272.8312459770186</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="C31" t="n">
-        <v>272.8312459770186</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="D31" t="n">
-        <v>272.8312459770186</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="E31" t="n">
-        <v>272.8312459770186</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="F31" t="n">
-        <v>272.8312459770186</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="G31" t="n">
-        <v>103.831445715351</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X31" t="n">
-        <v>272.8312459770186</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y31" t="n">
-        <v>272.8312459770186</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>464.928886609972</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="C32" t="n">
-        <v>464.928886609972</v>
+        <v>1524.781542768992</v>
       </c>
       <c r="D32" t="n">
-        <v>464.928886609972</v>
+        <v>1166.515844162242</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>780.7275915639973</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7416867743897</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U32" t="n">
-        <v>2298.96535952467</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V32" t="n">
-        <v>1967.902472181099</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W32" t="n">
-        <v>1615.133816910985</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X32" t="n">
-        <v>1241.668058649906</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y32" t="n">
-        <v>851.5287266740938</v>
+        <v>1893.744059709404</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1177.911859172213</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.911859172213</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.911859172213</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1236065739691</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533135</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977174</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2625.34849202279</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V35" t="n">
-        <v>2294.285604679219</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W35" t="n">
-        <v>1941.516949409105</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X35" t="n">
-        <v>1568.051191148025</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y35" t="n">
-        <v>1177.911859172213</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2471.7452186737</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>2243.755667775682</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632152</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1192.157102157134</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C38" t="n">
-        <v>823.1945852167225</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="D38" t="n">
-        <v>464.928886609972</v>
+        <v>1578.81779408627</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1193.029541488026</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>782.0436366984186</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>364.0798285966055</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7204,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2540.586865099505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2286.825079737596</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1955.762192394026</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1955.762192394026</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1582.296434132946</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1192.157102157134</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036444</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036444</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>381.1377017843616</v>
+        <v>1731.411330760289</v>
       </c>
       <c r="C41" t="n">
-        <v>381.1377017843616</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D41" t="n">
-        <v>381.1377017843616</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2468.935960060968</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2215.17417469906</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>1884.111287355489</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W41" t="n">
-        <v>1531.342632085375</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X41" t="n">
-        <v>1157.876873824295</v>
+        <v>2121.550662736101</v>
       </c>
       <c r="Y41" t="n">
-        <v>767.7375418484835</v>
+        <v>1731.411330760289</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7490,16 +7490,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>616.0813039300605</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>388.7731165986622</v>
+        <v>659.0063399253745</v>
       </c>
       <c r="U43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2552.217479555209</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2552.217479555209</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2298.4556941933</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1967.39280684973</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>1614.624151579615</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
         <v>53.94298182036445</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>554.6442689908469</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>554.6442689908469</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>373.4196241640158</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>337.2886456526686</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>118.4674613291451</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22640,10 +22640,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22685,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>49.92890085601474</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>26.92171639560434</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7562331984328523</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>35.93361670029731</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22868,25 +22868,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>140.6276542400826</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>125.3424196794462</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521642</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>277.1215230742471</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>106.4890667268019</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>92.68680435296048</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>47.07006491981255</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>92.30257421685249</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>76.97298234353448</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.74425144011366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>68.0306271174702</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>47.41997957426351</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>110.7322398056486</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>96.25160475629417</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>239.8038512531363</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>297.4019314855959</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23907,13 +23907,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>108.8089971557903</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053969</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>79.2024603475752</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>270.9868357550575</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24025,16 +24025,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>16.6927948640033</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>308.4693617589783</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>300.3391702558298</v>
       </c>
     </row>
     <row r="24">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>93.3468955463383</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24648,22 +24648,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>14.84727966881371</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>95.61682482613843</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>234.7878626807371</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>117.5528344178352</v>
       </c>
       <c r="H31" t="n">
-        <v>106.7813095857584</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24888,10 +24888,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>101.14345211631</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24967,25 +24967,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>73.47059368733028</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25131,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>180.1415745028114</v>
+        <v>168.6245956761327</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535643</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,7 +25365,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>1.885271837007593</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>16.88729445587859</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25444,13 +25444,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>61.45171669812788</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>157.5449387916443</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>164.9330335189477</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>280.0069395712412</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>101.2183354764089</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>156.6036876198352</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>85.41182003539973</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,22 +26070,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>199.9504293748106</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482163.6750662235</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482163.6750662234</v>
+        <v>485250.2066126675</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482163.6750662234</v>
+        <v>501254.887591759</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972482</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26328,7 +26328,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
@@ -26337,10 +26337,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="K2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="K2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753593</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>407720.4376835739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847476</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.117690635</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589615</v>
+        <v>42033.93659314635</v>
       </c>
       <c r="D4" t="n">
-        <v>42017.42535589615</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
         <v>44802.65617556861</v>
@@ -26441,25 +26441,25 @@
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.65617556859</v>
       </c>
       <c r="M4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29831.55399957303</v>
+        <v>-42049.56461961345</v>
       </c>
       <c r="C6" t="n">
-        <v>50937.8775319747</v>
+        <v>34959.26536751765</v>
       </c>
       <c r="D6" t="n">
-        <v>50937.87753197467</v>
+        <v>20880.59070753574</v>
       </c>
       <c r="E6" t="n">
-        <v>-281100.5897685803</v>
+        <v>-262043.2671549773</v>
       </c>
       <c r="F6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="G6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="H6" t="n">
-        <v>151745.5842744158</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="I6" t="n">
-        <v>151745.5842744158</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="J6" t="n">
-        <v>88685.64167530953</v>
+        <v>82617.22792949041</v>
       </c>
       <c r="K6" t="n">
-        <v>151745.5842744159</v>
+        <v>144763.9147261394</v>
       </c>
       <c r="L6" t="n">
-        <v>151745.5842744158</v>
+        <v>140949.6074097492</v>
       </c>
       <c r="M6" t="n">
-        <v>43772.22360035775</v>
+        <v>43243.05283796159</v>
       </c>
       <c r="N6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="O6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="P6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="G3" t="n">
-        <v>377.7436642170865</v>
-      </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26819,13 +26819,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354754</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>354.7302815302968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052466</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768964</v>
+        <v>411.0452388028885</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246607</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430047</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418822</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32247,25 +32247,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>232.7035310438139</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.61704058897</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>207.6969052949508</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031301</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060965</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
